--- a/data/pca/factorExposure/factorExposure_2011-04-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.007383277902225182</v>
+        <v>-0.01316944646879402</v>
       </c>
       <c r="C2">
-        <v>-0.001950609895178055</v>
+        <v>-0.002059569766619656</v>
       </c>
       <c r="D2">
-        <v>-0.05067415264709767</v>
+        <v>-0.03003367830680584</v>
       </c>
       <c r="E2">
-        <v>0.0003501093023935632</v>
+        <v>-0.01469464225233051</v>
       </c>
       <c r="F2">
-        <v>0.01424386184284686</v>
+        <v>-0.002499450388388171</v>
       </c>
       <c r="G2">
-        <v>0.006177853923619172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.02068725415865792</v>
+      </c>
+      <c r="H2">
+        <v>-0.03716395146462814</v>
+      </c>
+      <c r="I2">
+        <v>0.05086315365080604</v>
+      </c>
+      <c r="J2">
+        <v>-0.04122128783881738</v>
+      </c>
+      <c r="K2">
+        <v>-0.03926911384554458</v>
+      </c>
+      <c r="L2">
+        <v>-0.006675339085952822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.1022162141289106</v>
+        <v>-0.1124245137626427</v>
       </c>
       <c r="C4">
-        <v>-0.03813787487013477</v>
+        <v>-0.06453837403454123</v>
       </c>
       <c r="D4">
-        <v>-0.04380583848989069</v>
+        <v>-0.02256834323783658</v>
       </c>
       <c r="E4">
-        <v>-0.06527966163711882</v>
+        <v>-0.02175890912449389</v>
       </c>
       <c r="F4">
-        <v>0.03435842527570552</v>
+        <v>-0.1419495350884335</v>
       </c>
       <c r="G4">
-        <v>0.03460839693786477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.05215819976894549</v>
+      </c>
+      <c r="H4">
+        <v>-0.04951815601177686</v>
+      </c>
+      <c r="I4">
+        <v>-0.02197942727823562</v>
+      </c>
+      <c r="J4">
+        <v>0.02023800581407735</v>
+      </c>
+      <c r="K4">
+        <v>0.0160053054596176</v>
+      </c>
+      <c r="L4">
+        <v>-0.03084370662825627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.1302689822375425</v>
+        <v>-0.1270302143998239</v>
       </c>
       <c r="C6">
-        <v>-0.02974096421403651</v>
+        <v>-0.03192914512389424</v>
       </c>
       <c r="D6">
-        <v>-0.03700538619360272</v>
+        <v>0.01496584590322162</v>
       </c>
       <c r="E6">
-        <v>0.01342851522310746</v>
+        <v>-0.01253154785086377</v>
       </c>
       <c r="F6">
-        <v>-0.1415034175164776</v>
+        <v>0.03333595542613019</v>
       </c>
       <c r="G6">
-        <v>-0.1057832432437407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.1002882745412162</v>
+      </c>
+      <c r="H6">
+        <v>0.01105463261489321</v>
+      </c>
+      <c r="I6">
+        <v>-0.2639474680544767</v>
+      </c>
+      <c r="J6">
+        <v>0.3474674254590223</v>
+      </c>
+      <c r="K6">
+        <v>-0.07061921930447865</v>
+      </c>
+      <c r="L6">
+        <v>-0.1602171014536133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.08812360916243979</v>
+        <v>-0.07999180953071899</v>
       </c>
       <c r="C7">
-        <v>-0.04636654686994938</v>
+        <v>-0.07048296822572619</v>
       </c>
       <c r="D7">
-        <v>-0.04679820013292182</v>
+        <v>-0.03183336717408802</v>
       </c>
       <c r="E7">
-        <v>-0.02895835452913631</v>
+        <v>-0.02405246722655726</v>
       </c>
       <c r="F7">
-        <v>-0.02370605999608038</v>
+        <v>-0.04407334614130392</v>
       </c>
       <c r="G7">
-        <v>0.03813205402710779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.008069491055638707</v>
+      </c>
+      <c r="H7">
+        <v>-0.0004751625653062442</v>
+      </c>
+      <c r="I7">
+        <v>-0.02398700745372109</v>
+      </c>
+      <c r="J7">
+        <v>-0.06168916434325381</v>
+      </c>
+      <c r="K7">
+        <v>0.08696387152293256</v>
+      </c>
+      <c r="L7">
+        <v>0.006808654870168682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.04557933677951725</v>
+        <v>-0.05035604001080858</v>
       </c>
       <c r="C8">
-        <v>0.01382073141140975</v>
+        <v>-0.01751546794282807</v>
       </c>
       <c r="D8">
-        <v>-0.07699898962843209</v>
+        <v>-0.009225263715112572</v>
       </c>
       <c r="E8">
-        <v>-0.08024697449028324</v>
+        <v>-0.00922658187309619</v>
       </c>
       <c r="F8">
-        <v>0.02753180990924016</v>
+        <v>-0.1554957912016343</v>
       </c>
       <c r="G8">
-        <v>0.1340027795736339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0007022409206028182</v>
+      </c>
+      <c r="H8">
+        <v>-0.0571690347926965</v>
+      </c>
+      <c r="I8">
+        <v>-0.02789467746422696</v>
+      </c>
+      <c r="J8">
+        <v>0.009079146566895133</v>
+      </c>
+      <c r="K8">
+        <v>0.01119718453637492</v>
+      </c>
+      <c r="L8">
+        <v>-0.07602104601457915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.09008007536823082</v>
+        <v>-0.08538449369397566</v>
       </c>
       <c r="C9">
-        <v>-0.04063028378068499</v>
+        <v>-0.05753110752576076</v>
       </c>
       <c r="D9">
-        <v>-0.04071219267398385</v>
+        <v>-0.02084830419421391</v>
       </c>
       <c r="E9">
-        <v>-0.04518840278078556</v>
+        <v>-0.006099753793447953</v>
       </c>
       <c r="F9">
-        <v>0.01603607342744191</v>
+        <v>-0.1219195218108155</v>
       </c>
       <c r="G9">
-        <v>0.06611001623507579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.05567015171290211</v>
+      </c>
+      <c r="H9">
+        <v>-0.02619389970318352</v>
+      </c>
+      <c r="I9">
+        <v>-0.02079949336272737</v>
+      </c>
+      <c r="J9">
+        <v>0.002768781294134118</v>
+      </c>
+      <c r="K9">
+        <v>-0.01711889209404279</v>
+      </c>
+      <c r="L9">
+        <v>-0.02890596641998041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.04060807807929708</v>
+        <v>-0.09975945272551885</v>
       </c>
       <c r="C10">
-        <v>0.1583219882052439</v>
+        <v>0.1663978367568932</v>
       </c>
       <c r="D10">
-        <v>-0.09049072450917078</v>
+        <v>-0.04917391775542081</v>
       </c>
       <c r="E10">
-        <v>-0.02546096829219927</v>
+        <v>-0.04077505411198899</v>
       </c>
       <c r="F10">
-        <v>-0.04596986345640137</v>
+        <v>0.01054581302229527</v>
       </c>
       <c r="G10">
-        <v>0.01560435665719618</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02287565579520471</v>
+      </c>
+      <c r="H10">
+        <v>0.05337665956609431</v>
+      </c>
+      <c r="I10">
+        <v>-0.01860984305245255</v>
+      </c>
+      <c r="J10">
+        <v>0.01272035366912427</v>
+      </c>
+      <c r="K10">
+        <v>0.07533270799418605</v>
+      </c>
+      <c r="L10">
+        <v>0.01505263258548054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.07493796921490492</v>
+        <v>-0.07778438335880064</v>
       </c>
       <c r="C11">
-        <v>-0.06393489342689583</v>
+        <v>-0.07157803201163575</v>
       </c>
       <c r="D11">
-        <v>-0.008727715544175488</v>
+        <v>-0.01256878711672045</v>
       </c>
       <c r="E11">
-        <v>-0.0009593837597104994</v>
+        <v>0.02738703529157835</v>
       </c>
       <c r="F11">
-        <v>0.02281684638163002</v>
+        <v>-0.1293715439793079</v>
       </c>
       <c r="G11">
-        <v>0.1421058802275469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02676567471945416</v>
+      </c>
+      <c r="H11">
+        <v>0.01533777277802426</v>
+      </c>
+      <c r="I11">
+        <v>0.04654991358267926</v>
+      </c>
+      <c r="J11">
+        <v>-0.0817182556179662</v>
+      </c>
+      <c r="K11">
+        <v>-0.05235781703980445</v>
+      </c>
+      <c r="L11">
+        <v>-0.002165444078042256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.07003515235047943</v>
+        <v>-0.07175828507704735</v>
       </c>
       <c r="C12">
-        <v>-0.04009754606167154</v>
+        <v>-0.06404569093252574</v>
       </c>
       <c r="D12">
-        <v>0.001021801398107456</v>
+        <v>-0.01849742282272222</v>
       </c>
       <c r="E12">
-        <v>-0.03657325708505168</v>
+        <v>0.02621688155304243</v>
       </c>
       <c r="F12">
-        <v>0.003234487701010042</v>
+        <v>-0.1452549580699595</v>
       </c>
       <c r="G12">
-        <v>0.1371256225562629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.003336489559587488</v>
+      </c>
+      <c r="H12">
+        <v>-0.0001830885849548958</v>
+      </c>
+      <c r="I12">
+        <v>0.002653562247145625</v>
+      </c>
+      <c r="J12">
+        <v>-0.09155723730834733</v>
+      </c>
+      <c r="K12">
+        <v>-0.06158708025043491</v>
+      </c>
+      <c r="L12">
+        <v>-0.04033669796128385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.06335538169106596</v>
+        <v>-0.04092737585156956</v>
       </c>
       <c r="C13">
-        <v>-0.002591350122822036</v>
+        <v>-0.02888022141798044</v>
       </c>
       <c r="D13">
-        <v>-0.01186417866006757</v>
+        <v>-0.003255650804205474</v>
       </c>
       <c r="E13">
-        <v>-0.03064252175028379</v>
+        <v>-0.02134390981387457</v>
       </c>
       <c r="F13">
-        <v>0.03950997772080037</v>
+        <v>-0.05549721646345562</v>
       </c>
       <c r="G13">
-        <v>0.06190293646409566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.0137867793351664</v>
+      </c>
+      <c r="H13">
+        <v>-0.01269856692862584</v>
+      </c>
+      <c r="I13">
+        <v>-0.05174648937855446</v>
+      </c>
+      <c r="J13">
+        <v>0.003849908083104093</v>
+      </c>
+      <c r="K13">
+        <v>0.04013783021338038</v>
+      </c>
+      <c r="L13">
+        <v>0.01572115321369168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.05170015983498535</v>
+        <v>-0.04292527272753189</v>
       </c>
       <c r="C14">
-        <v>-0.004676823922183668</v>
+        <v>-0.0228779288377673</v>
       </c>
       <c r="D14">
-        <v>-0.0323668200847108</v>
+        <v>-0.01251305323400401</v>
       </c>
       <c r="E14">
-        <v>-0.02877296097787841</v>
+        <v>0.01307509255974131</v>
       </c>
       <c r="F14">
-        <v>0.003613253457553695</v>
+        <v>-0.0666779289299765</v>
       </c>
       <c r="G14">
-        <v>0.06978346001952355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.001795522338390625</v>
+      </c>
+      <c r="H14">
+        <v>-0.007759168056033793</v>
+      </c>
+      <c r="I14">
+        <v>0.001035219292066603</v>
+      </c>
+      <c r="J14">
+        <v>0.04339310470826423</v>
+      </c>
+      <c r="K14">
+        <v>0.06859679703808007</v>
+      </c>
+      <c r="L14">
+        <v>-0.0532303147006758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.03616007335859725</v>
+        <v>-0.02288771128513244</v>
       </c>
       <c r="C15">
-        <v>0.009498865694812859</v>
+        <v>-0.01141233900050334</v>
       </c>
       <c r="D15">
-        <v>-0.0128576450020032</v>
+        <v>0.009483566861081495</v>
       </c>
       <c r="E15">
-        <v>-0.01054023826851916</v>
+        <v>-0.04590098201612467</v>
       </c>
       <c r="F15">
-        <v>0.01575557272336433</v>
+        <v>-0.01043854485703586</v>
       </c>
       <c r="G15">
-        <v>0.03384619269877588</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.03595080518530541</v>
+      </c>
+      <c r="H15">
+        <v>0.001324797234337208</v>
+      </c>
+      <c r="I15">
+        <v>-0.02219580639562388</v>
+      </c>
+      <c r="J15">
+        <v>0.03322741334884376</v>
+      </c>
+      <c r="K15">
+        <v>0.06734415466629441</v>
+      </c>
+      <c r="L15">
+        <v>0.01768092139536277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.07753648622013184</v>
+        <v>-0.08148664519439038</v>
       </c>
       <c r="C16">
-        <v>-0.07303690819162451</v>
+        <v>-0.074187869431663</v>
       </c>
       <c r="D16">
-        <v>-0.01647363057583325</v>
+        <v>-0.009912297433446038</v>
       </c>
       <c r="E16">
-        <v>-0.03932355626972912</v>
+        <v>0.02330339586051813</v>
       </c>
       <c r="F16">
-        <v>0.03928365937437675</v>
+        <v>-0.1414015478194227</v>
       </c>
       <c r="G16">
-        <v>0.1063024659247415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.0002124981559615114</v>
+      </c>
+      <c r="H16">
+        <v>0.004316972755000446</v>
+      </c>
+      <c r="I16">
+        <v>0.03648510534586039</v>
+      </c>
+      <c r="J16">
+        <v>-0.09690684637793903</v>
+      </c>
+      <c r="K16">
+        <v>-0.03751555907753253</v>
+      </c>
+      <c r="L16">
+        <v>-0.02820275407448275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.04993785415069772</v>
+        <v>-0.04736906879715565</v>
       </c>
       <c r="C20">
-        <v>-0.01882307011681199</v>
+        <v>-0.0379886904475003</v>
       </c>
       <c r="D20">
-        <v>-0.01975164451315004</v>
+        <v>-0.01676717463576545</v>
       </c>
       <c r="E20">
-        <v>-0.02661747565177382</v>
+        <v>-0.01897625937678902</v>
       </c>
       <c r="F20">
-        <v>0.008763144917223673</v>
+        <v>-0.07473331666877803</v>
       </c>
       <c r="G20">
-        <v>0.09776424742669058</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.00132241149938678</v>
+      </c>
+      <c r="H20">
+        <v>-0.009785761043904486</v>
+      </c>
+      <c r="I20">
+        <v>-0.03274214339533837</v>
+      </c>
+      <c r="J20">
+        <v>-0.009978673904843083</v>
+      </c>
+      <c r="K20">
+        <v>0.04676094897704781</v>
+      </c>
+      <c r="L20">
+        <v>-0.01753436071421332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.0277768839015799</v>
+        <v>-0.02438023569541386</v>
       </c>
       <c r="C21">
-        <v>-0.04210458501695764</v>
+        <v>-0.02191225475937298</v>
       </c>
       <c r="D21">
-        <v>0.004175656201197553</v>
+        <v>-0.005609975376470022</v>
       </c>
       <c r="E21">
-        <v>-0.01572232057930165</v>
+        <v>0.004085444092237197</v>
       </c>
       <c r="F21">
-        <v>-0.08061896918702129</v>
+        <v>-0.06379795473258615</v>
       </c>
       <c r="G21">
-        <v>-0.04072349813305925</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05679731550428226</v>
+      </c>
+      <c r="H21">
+        <v>0.04644245341091038</v>
+      </c>
+      <c r="I21">
+        <v>-0.07730390832956438</v>
+      </c>
+      <c r="J21">
+        <v>-0.02376358916063809</v>
+      </c>
+      <c r="K21">
+        <v>0.1117769434209113</v>
+      </c>
+      <c r="L21">
+        <v>0.08228794672842842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.04277029207371653</v>
+        <v>-0.04596937049120944</v>
       </c>
       <c r="C22">
-        <v>2.065694611613323e-05</v>
+        <v>-0.01159359612609866</v>
       </c>
       <c r="D22">
-        <v>0.008237657860185276</v>
+        <v>0.1739912472658761</v>
       </c>
       <c r="E22">
-        <v>-0.5559861784750384</v>
+        <v>-0.6317833618047803</v>
       </c>
       <c r="F22">
-        <v>0.07918271195916256</v>
+        <v>0.006319831789372537</v>
       </c>
       <c r="G22">
-        <v>-0.3232695825345394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.1453896180963858</v>
+      </c>
+      <c r="H22">
+        <v>0.07999409763349077</v>
+      </c>
+      <c r="I22">
+        <v>0.01418005672936866</v>
+      </c>
+      <c r="J22">
+        <v>-0.05345942850360011</v>
+      </c>
+      <c r="K22">
+        <v>-0.07826066682324549</v>
+      </c>
+      <c r="L22">
+        <v>0.03540266396221749</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.04277300139701979</v>
+        <v>-0.04637462605353439</v>
       </c>
       <c r="C23">
-        <v>-0.0005770712511056329</v>
+        <v>-0.0122301348265189</v>
       </c>
       <c r="D23">
-        <v>0.007105989936242103</v>
+        <v>0.1745529715616252</v>
       </c>
       <c r="E23">
-        <v>-0.555658721034029</v>
+        <v>-0.6335226459547393</v>
       </c>
       <c r="F23">
-        <v>0.07988416987910978</v>
+        <v>0.004008457641337116</v>
       </c>
       <c r="G23">
-        <v>-0.3248477470405052</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.1454641343667857</v>
+      </c>
+      <c r="H23">
+        <v>0.07775211359327573</v>
+      </c>
+      <c r="I23">
+        <v>0.01397549930402076</v>
+      </c>
+      <c r="J23">
+        <v>-0.0502038591440867</v>
+      </c>
+      <c r="K23">
+        <v>-0.08047773218464253</v>
+      </c>
+      <c r="L23">
+        <v>0.0336579728253554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.08552945718012335</v>
+        <v>-0.08400501557001427</v>
       </c>
       <c r="C24">
-        <v>-0.048671662345029</v>
+        <v>-0.06634694644744964</v>
       </c>
       <c r="D24">
-        <v>-0.02005557059578351</v>
+        <v>-0.01415707112135671</v>
       </c>
       <c r="E24">
-        <v>-0.04089759966995898</v>
+        <v>0.01799392000818973</v>
       </c>
       <c r="F24">
-        <v>0.01161236815655563</v>
+        <v>-0.1319156274243958</v>
       </c>
       <c r="G24">
-        <v>0.1085822994539676</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02270900029584072</v>
+      </c>
+      <c r="H24">
+        <v>0.03216823985233127</v>
+      </c>
+      <c r="I24">
+        <v>0.05263055412360828</v>
+      </c>
+      <c r="J24">
+        <v>-0.08220581875048671</v>
+      </c>
+      <c r="K24">
+        <v>-0.0613325673370017</v>
+      </c>
+      <c r="L24">
+        <v>-0.01735392882478458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.07474771011407301</v>
+        <v>-0.08344379810894367</v>
       </c>
       <c r="C25">
-        <v>-0.02065186637225637</v>
+        <v>-0.05208375836508679</v>
       </c>
       <c r="D25">
-        <v>-0.02583507517135703</v>
+        <v>-0.02741764898097894</v>
       </c>
       <c r="E25">
-        <v>-0.02906318931824563</v>
+        <v>0.02987336136960668</v>
       </c>
       <c r="F25">
-        <v>0.004265876489734897</v>
+        <v>-0.136732598301464</v>
       </c>
       <c r="G25">
-        <v>0.1037753919995244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.001257983161530705</v>
+      </c>
+      <c r="H25">
+        <v>0.008322694830630391</v>
+      </c>
+      <c r="I25">
+        <v>0.03661363071869934</v>
+      </c>
+      <c r="J25">
+        <v>-0.07448005848741393</v>
+      </c>
+      <c r="K25">
+        <v>-0.04809882702492421</v>
+      </c>
+      <c r="L25">
+        <v>-0.04973194474496034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.04935160296929333</v>
+        <v>-0.04241805936921923</v>
       </c>
       <c r="C26">
-        <v>-0.02685095631563878</v>
+        <v>-0.01002510312091211</v>
       </c>
       <c r="D26">
-        <v>-0.03476235545693575</v>
+        <v>0.003353538989924962</v>
       </c>
       <c r="E26">
-        <v>-0.01860069541271198</v>
+        <v>-0.01190837383173982</v>
       </c>
       <c r="F26">
-        <v>0.02969527584680563</v>
+        <v>-0.05504632224274786</v>
       </c>
       <c r="G26">
-        <v>0.06203535537729062</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.002618424730207771</v>
+      </c>
+      <c r="H26">
+        <v>0.02820893113709559</v>
+      </c>
+      <c r="I26">
+        <v>0.01115343852398307</v>
+      </c>
+      <c r="J26">
+        <v>0.03501491314743607</v>
+      </c>
+      <c r="K26">
+        <v>0.05600089331766815</v>
+      </c>
+      <c r="L26">
+        <v>0.03136569028164617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.06961688669811603</v>
+        <v>-0.125004588639338</v>
       </c>
       <c r="C28">
-        <v>0.2926995829971367</v>
+        <v>0.3004692143287665</v>
       </c>
       <c r="D28">
-        <v>-0.06309634832875378</v>
+        <v>-0.001731322605967603</v>
       </c>
       <c r="E28">
-        <v>0.03799208184546123</v>
+        <v>0.01146291992320872</v>
       </c>
       <c r="F28">
-        <v>-0.05230942947015495</v>
+        <v>-0.0218552858286512</v>
       </c>
       <c r="G28">
-        <v>-0.02440082967751574</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.005672358350042181</v>
+      </c>
+      <c r="H28">
+        <v>-0.005193870915104082</v>
+      </c>
+      <c r="I28">
+        <v>-0.02434668170148277</v>
+      </c>
+      <c r="J28">
+        <v>-0.01845815883416475</v>
+      </c>
+      <c r="K28">
+        <v>0.00320144321378903</v>
+      </c>
+      <c r="L28">
+        <v>0.03092533084003151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.05604991725009302</v>
+        <v>-0.04138066911189191</v>
       </c>
       <c r="C29">
-        <v>-0.007426971591227702</v>
+        <v>-0.02532068786577122</v>
       </c>
       <c r="D29">
-        <v>-0.02440148844170357</v>
+        <v>-0.0272057912355233</v>
       </c>
       <c r="E29">
-        <v>-0.04737922933243507</v>
+        <v>-0.005731296094658223</v>
       </c>
       <c r="F29">
-        <v>0.03427119996950942</v>
+        <v>-0.09096423163442841</v>
       </c>
       <c r="G29">
-        <v>0.04560940797157994</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03101669093519466</v>
+      </c>
+      <c r="H29">
+        <v>0.01344949450354565</v>
+      </c>
+      <c r="I29">
+        <v>-0.01949462553684668</v>
+      </c>
+      <c r="J29">
+        <v>0.0263385568181861</v>
+      </c>
+      <c r="K29">
+        <v>0.07348108292844506</v>
+      </c>
+      <c r="L29">
+        <v>-0.03751759451349196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.1184884889456686</v>
+        <v>-0.1051019696277679</v>
       </c>
       <c r="C30">
-        <v>0.01292925708929881</v>
+        <v>-0.05679842292861783</v>
       </c>
       <c r="D30">
-        <v>-0.08089599989854307</v>
+        <v>0.02196914084659679</v>
       </c>
       <c r="E30">
-        <v>-0.200743007747861</v>
+        <v>0.009237388972071955</v>
       </c>
       <c r="F30">
-        <v>-0.05026797045097054</v>
+        <v>-0.209953770235058</v>
       </c>
       <c r="G30">
-        <v>0.1267132168866352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01230220735464982</v>
+      </c>
+      <c r="H30">
+        <v>0.06493903056269079</v>
+      </c>
+      <c r="I30">
+        <v>-0.1550607372023852</v>
+      </c>
+      <c r="J30">
+        <v>-0.1223997098115129</v>
+      </c>
+      <c r="K30">
+        <v>-0.2385186662369688</v>
+      </c>
+      <c r="L30">
+        <v>-0.05214635255032669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.05482535952690467</v>
+        <v>-0.0395189565904707</v>
       </c>
       <c r="C31">
-        <v>-0.01616576334038474</v>
+        <v>-0.03976523856322347</v>
       </c>
       <c r="D31">
-        <v>0.00847707730930489</v>
+        <v>-0.003017193345479942</v>
       </c>
       <c r="E31">
-        <v>-0.009295091691151173</v>
+        <v>-0.003874308495840585</v>
       </c>
       <c r="F31">
-        <v>0.02479573164528067</v>
+        <v>-0.02890616479267985</v>
       </c>
       <c r="G31">
-        <v>0.003805732472358655</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.005336288854889782</v>
+      </c>
+      <c r="H31">
+        <v>-0.01132922350537271</v>
+      </c>
+      <c r="I31">
+        <v>0.02586776051110763</v>
+      </c>
+      <c r="J31">
+        <v>0.02768726849165886</v>
+      </c>
+      <c r="K31">
+        <v>0.0139558402927809</v>
+      </c>
+      <c r="L31">
+        <v>-0.03696983957307251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.03428084126270328</v>
+        <v>-0.04838943286633936</v>
       </c>
       <c r="C32">
-        <v>0.02649786923299158</v>
+        <v>-0.0006553699665610307</v>
       </c>
       <c r="D32">
-        <v>-0.006830864440292444</v>
+        <v>0.02229179009127688</v>
       </c>
       <c r="E32">
-        <v>-0.08478408416219217</v>
+        <v>0.02637888750419756</v>
       </c>
       <c r="F32">
-        <v>0.06805421358713075</v>
+        <v>-0.06632748747409338</v>
       </c>
       <c r="G32">
-        <v>0.05370238721128579</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.04354268741274855</v>
+      </c>
+      <c r="H32">
+        <v>-0.005216159121242946</v>
+      </c>
+      <c r="I32">
+        <v>0.01449621609793874</v>
+      </c>
+      <c r="J32">
+        <v>0.01222350446988968</v>
+      </c>
+      <c r="K32">
+        <v>0.0168568367384472</v>
+      </c>
+      <c r="L32">
+        <v>0.007878281706004254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.110867308756341</v>
+        <v>-0.1003924327999525</v>
       </c>
       <c r="C33">
-        <v>-0.02160594388943829</v>
+        <v>-0.05552251326058132</v>
       </c>
       <c r="D33">
-        <v>0.008106146678793639</v>
+        <v>-0.001637774754593011</v>
       </c>
       <c r="E33">
-        <v>-0.0114612192401294</v>
+        <v>0.02158119521297145</v>
       </c>
       <c r="F33">
-        <v>0.05210140126465467</v>
+        <v>-0.07390330533509866</v>
       </c>
       <c r="G33">
-        <v>0.05436836359697141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.006300943810447062</v>
+      </c>
+      <c r="H33">
+        <v>-0.002516774284474649</v>
+      </c>
+      <c r="I33">
+        <v>0.02462025567634686</v>
+      </c>
+      <c r="J33">
+        <v>0.002074142427574327</v>
+      </c>
+      <c r="K33">
+        <v>-0.01246447763988451</v>
+      </c>
+      <c r="L33">
+        <v>-0.02057522743462778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.06473493147886951</v>
+        <v>-0.06759638187410395</v>
       </c>
       <c r="C34">
-        <v>-0.05141118783029859</v>
+        <v>-0.0547639000975942</v>
       </c>
       <c r="D34">
-        <v>-0.006513941227212417</v>
+        <v>-0.01383268803687741</v>
       </c>
       <c r="E34">
-        <v>-0.02129026121929018</v>
+        <v>0.02304164510085921</v>
       </c>
       <c r="F34">
-        <v>0.01664847939317416</v>
+        <v>-0.1234590728544262</v>
       </c>
       <c r="G34">
-        <v>0.08774945849107355</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.007811181687109318</v>
+      </c>
+      <c r="H34">
+        <v>0.004368505068436572</v>
+      </c>
+      <c r="I34">
+        <v>0.02644228933954502</v>
+      </c>
+      <c r="J34">
+        <v>-0.07563724179789895</v>
+      </c>
+      <c r="K34">
+        <v>-0.002319320686295359</v>
+      </c>
+      <c r="L34">
+        <v>-0.03818625447402298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.04219475257962031</v>
+        <v>-0.02295608974625373</v>
       </c>
       <c r="C35">
-        <v>-0.007266918291336964</v>
+        <v>-0.02005186716320468</v>
       </c>
       <c r="D35">
-        <v>0.01592309344493959</v>
+        <v>-0.005451056761056838</v>
       </c>
       <c r="E35">
-        <v>-0.008287275159897772</v>
+        <v>0.005152675613792249</v>
       </c>
       <c r="F35">
-        <v>-0.03161062028661521</v>
+        <v>-0.04278817202167786</v>
       </c>
       <c r="G35">
-        <v>0.04299530145716184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.01856873979772061</v>
+      </c>
+      <c r="H35">
+        <v>0.003744591573142839</v>
+      </c>
+      <c r="I35">
+        <v>-0.03000539983067001</v>
+      </c>
+      <c r="J35">
+        <v>-0.04146145965824202</v>
+      </c>
+      <c r="K35">
+        <v>0.04146650711051102</v>
+      </c>
+      <c r="L35">
+        <v>-0.02584947544973115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03578454921854074</v>
+        <v>-0.02813624015182774</v>
       </c>
       <c r="C36">
-        <v>-0.002562138378278484</v>
+        <v>-0.01352728679841658</v>
       </c>
       <c r="D36">
-        <v>-0.02517117420119179</v>
+        <v>-0.002287246324703422</v>
       </c>
       <c r="E36">
-        <v>-0.03524497522874985</v>
+        <v>-0.007456726948144864</v>
       </c>
       <c r="F36">
-        <v>0.00438193427837473</v>
+        <v>-0.07162430761008562</v>
       </c>
       <c r="G36">
-        <v>0.06249078002948324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01106054198724481</v>
+      </c>
+      <c r="H36">
+        <v>0.009443526547266764</v>
+      </c>
+      <c r="I36">
+        <v>-0.009310245834624647</v>
+      </c>
+      <c r="J36">
+        <v>0.02964271836719636</v>
+      </c>
+      <c r="K36">
+        <v>0.01163865690101891</v>
+      </c>
+      <c r="L36">
+        <v>-0.007084972740227824</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.05145747026543365</v>
+        <v>-0.02360166636185211</v>
       </c>
       <c r="C38">
-        <v>-0.02032008410808324</v>
+        <v>-0.03035834747327011</v>
       </c>
       <c r="D38">
-        <v>-0.001623112916523668</v>
+        <v>-0.004968883516866665</v>
       </c>
       <c r="E38">
-        <v>-0.0153326237289962</v>
+        <v>-0.02142991493495787</v>
       </c>
       <c r="F38">
-        <v>-0.0003103290142479958</v>
+        <v>0.04387337313294667</v>
       </c>
       <c r="G38">
-        <v>0.0490069711736706</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.0280962605639423</v>
+      </c>
+      <c r="H38">
+        <v>0.01608395422703216</v>
+      </c>
+      <c r="I38">
+        <v>-0.01661931290835244</v>
+      </c>
+      <c r="J38">
+        <v>0.006940962071197557</v>
+      </c>
+      <c r="K38">
+        <v>-0.02067310576744048</v>
+      </c>
+      <c r="L38">
+        <v>0.108745331248315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.106140254694545</v>
+        <v>-0.1133522520976892</v>
       </c>
       <c r="C39">
-        <v>-0.04320564310523314</v>
+        <v>-0.08637753090544321</v>
       </c>
       <c r="D39">
-        <v>-0.00427658712451446</v>
+        <v>-0.0265327612398722</v>
       </c>
       <c r="E39">
-        <v>-0.06946100536095678</v>
+        <v>0.09527602134734441</v>
       </c>
       <c r="F39">
-        <v>0.007332954853423751</v>
+        <v>-0.1773117801173356</v>
       </c>
       <c r="G39">
-        <v>0.1478889162229375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.06796929168953282</v>
+      </c>
+      <c r="H39">
+        <v>0.002298562570136714</v>
+      </c>
+      <c r="I39">
+        <v>0.005428483962134622</v>
+      </c>
+      <c r="J39">
+        <v>-0.1742112408242129</v>
+      </c>
+      <c r="K39">
+        <v>-0.1168472644911027</v>
+      </c>
+      <c r="L39">
+        <v>-0.05314605148405202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.05272475435062787</v>
+        <v>-0.02757762425859215</v>
       </c>
       <c r="C40">
-        <v>-0.03491655857328851</v>
+        <v>-0.05870181301808404</v>
       </c>
       <c r="D40">
-        <v>0.02875031102960985</v>
+        <v>0.004263470033890886</v>
       </c>
       <c r="E40">
-        <v>-0.1075430771453908</v>
+        <v>-0.04786690660709152</v>
       </c>
       <c r="F40">
-        <v>-0.01539768994062298</v>
+        <v>-0.1082669609979824</v>
       </c>
       <c r="G40">
-        <v>0.2552529711569212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.07740203364453596</v>
+      </c>
+      <c r="H40">
+        <v>0.09461354740722433</v>
+      </c>
+      <c r="I40">
+        <v>-0.03425491588391205</v>
+      </c>
+      <c r="J40">
+        <v>0.006942113314701502</v>
+      </c>
+      <c r="K40">
+        <v>0.01007166900824438</v>
+      </c>
+      <c r="L40">
+        <v>0.09730908428079454</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.04725282830255227</v>
+        <v>-0.03480120247583929</v>
       </c>
       <c r="C41">
-        <v>-0.03177964888402758</v>
+        <v>-0.02866092438140974</v>
       </c>
       <c r="D41">
-        <v>-0.001601421841639683</v>
+        <v>-0.01575177792109827</v>
       </c>
       <c r="E41">
-        <v>0.01060604019822603</v>
+        <v>0.01104477728020866</v>
       </c>
       <c r="F41">
-        <v>0.02035213185644525</v>
+        <v>-0.01948265298334958</v>
       </c>
       <c r="G41">
-        <v>0.07168153419225683</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.005046016416298482</v>
+      </c>
+      <c r="H41">
+        <v>-0.003639295091905475</v>
+      </c>
+      <c r="I41">
+        <v>-0.00379540455551934</v>
+      </c>
+      <c r="J41">
+        <v>-0.007180242435205918</v>
+      </c>
+      <c r="K41">
+        <v>0.005155984523869457</v>
+      </c>
+      <c r="L41">
+        <v>0.003814302406565913</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.07326245970319512</v>
+        <v>-0.04978643935614666</v>
       </c>
       <c r="C43">
-        <v>-0.02718387576847487</v>
+        <v>-0.03041035659886703</v>
       </c>
       <c r="D43">
-        <v>-0.02458422829049441</v>
+        <v>-0.006057803810628736</v>
       </c>
       <c r="E43">
-        <v>-0.02324338189628556</v>
+        <v>-0.01573741026298905</v>
       </c>
       <c r="F43">
-        <v>0.01413754559079972</v>
+        <v>-0.02059488373220251</v>
       </c>
       <c r="G43">
-        <v>0.01207451091051533</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.03362031330410003</v>
+      </c>
+      <c r="H43">
+        <v>-0.01062487432146745</v>
+      </c>
+      <c r="I43">
+        <v>-0.01351893209822533</v>
+      </c>
+      <c r="J43">
+        <v>-0.007259748179662674</v>
+      </c>
+      <c r="K43">
+        <v>-0.02954938630483269</v>
+      </c>
+      <c r="L43">
+        <v>-0.01211838470938495</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.06415302848076036</v>
+        <v>-0.110267925397797</v>
       </c>
       <c r="C44">
-        <v>-0.02903951738747769</v>
+        <v>-0.09467913543002279</v>
       </c>
       <c r="D44">
-        <v>-0.0995557151545064</v>
+        <v>-0.04765277002618074</v>
       </c>
       <c r="E44">
-        <v>-0.07324963443120926</v>
+        <v>-0.1040440323273501</v>
       </c>
       <c r="F44">
-        <v>0.02925244819844488</v>
+        <v>-0.2500083816343632</v>
       </c>
       <c r="G44">
-        <v>0.13530757265554</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.02030916742545333</v>
+      </c>
+      <c r="H44">
+        <v>0.1025548419858454</v>
+      </c>
+      <c r="I44">
+        <v>-0.04872295687214287</v>
+      </c>
+      <c r="J44">
+        <v>0.03048053801696021</v>
+      </c>
+      <c r="K44">
+        <v>0.2361971094504857</v>
+      </c>
+      <c r="L44">
+        <v>0.05753570013749375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2410,443 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.04459111013671553</v>
+        <v>-0.03338407927958195</v>
       </c>
       <c r="C46">
-        <v>-0.04160522648993887</v>
+        <v>-0.02595662228340302</v>
       </c>
       <c r="D46">
-        <v>-0.02301976223346193</v>
+        <v>-0.01752079021066437</v>
       </c>
       <c r="E46">
-        <v>-0.0552781250935157</v>
+        <v>-0.0414224253891018</v>
       </c>
       <c r="F46">
-        <v>0.01044020167613529</v>
+        <v>-0.04103607358612496</v>
       </c>
       <c r="G46">
-        <v>0.04802802290369515</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.002229657812426724</v>
+      </c>
+      <c r="H46">
+        <v>0.03916757477552101</v>
+      </c>
+      <c r="I46">
+        <v>-0.004864527218981957</v>
+      </c>
+      <c r="J46">
+        <v>0.008188816838225159</v>
+      </c>
+      <c r="K46">
+        <v>0.1058566438442874</v>
+      </c>
+      <c r="L46">
+        <v>-0.0688388289695953</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.04791422955691684</v>
+        <v>-0.0420770449185832</v>
       </c>
       <c r="C47">
-        <v>-0.003881622056849273</v>
+        <v>-0.02429550509722541</v>
       </c>
       <c r="D47">
-        <v>-0.01134256606037597</v>
+        <v>-0.001144337463959663</v>
       </c>
       <c r="E47">
-        <v>-0.06366390313882334</v>
+        <v>-0.01970709799601172</v>
       </c>
       <c r="F47">
-        <v>-0.007004673973818019</v>
+        <v>-0.03684881376603626</v>
       </c>
       <c r="G47">
-        <v>-0.001617852933783568</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008351352684913384</v>
+      </c>
+      <c r="H47">
+        <v>-0.0008918974318945899</v>
+      </c>
+      <c r="I47">
+        <v>-0.02229629547454695</v>
+      </c>
+      <c r="J47">
+        <v>0.02553556375632474</v>
+      </c>
+      <c r="K47">
+        <v>0.03756471695736156</v>
+      </c>
+      <c r="L47">
+        <v>-0.008945248484901523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.04217426563777314</v>
+        <v>-0.04357839410469793</v>
       </c>
       <c r="C48">
-        <v>0.001599860728432443</v>
+        <v>-0.01346303829315046</v>
       </c>
       <c r="D48">
-        <v>0.002478759913157884</v>
+        <v>-0.007030217800183561</v>
       </c>
       <c r="E48">
-        <v>-0.03657572370200858</v>
+        <v>-0.007596588529230858</v>
       </c>
       <c r="F48">
-        <v>0.001722381826798193</v>
+        <v>-0.06506770096666376</v>
       </c>
       <c r="G48">
-        <v>0.0439537129482253</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02385436371380589</v>
+      </c>
+      <c r="H48">
+        <v>0.02350879397975321</v>
+      </c>
+      <c r="I48">
+        <v>-0.009198506988542382</v>
+      </c>
+      <c r="J48">
+        <v>-0.01132609219189159</v>
+      </c>
+      <c r="K48">
+        <v>0.026107304110984</v>
+      </c>
+      <c r="L48">
+        <v>-0.04667935133395401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.2350106233901975</v>
+        <v>-0.2214935936551895</v>
       </c>
       <c r="C49">
-        <v>-0.09932605949281026</v>
+        <v>-0.04603962628257144</v>
       </c>
       <c r="D49">
-        <v>-0.03522205645587182</v>
+        <v>-0.07561899221225889</v>
       </c>
       <c r="E49">
-        <v>0.1016286915884429</v>
+        <v>0.01068337356568753</v>
       </c>
       <c r="F49">
-        <v>-0.1751546365357388</v>
+        <v>0.2684269783385366</v>
       </c>
       <c r="G49">
-        <v>-0.08522678761249743</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.1155496780312544</v>
+      </c>
+      <c r="H49">
+        <v>0.1811516824525906</v>
+      </c>
+      <c r="I49">
+        <v>0.0173742745105296</v>
+      </c>
+      <c r="J49">
+        <v>-0.1283788482976895</v>
+      </c>
+      <c r="K49">
+        <v>-0.2151993209788427</v>
+      </c>
+      <c r="L49">
+        <v>0.02899716860609088</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.05379040542692316</v>
+        <v>-0.0436191559981928</v>
       </c>
       <c r="C50">
-        <v>-0.01441447850497589</v>
+        <v>-0.0285413558804024</v>
       </c>
       <c r="D50">
-        <v>0.005751859660151503</v>
+        <v>-0.0004193928655879648</v>
       </c>
       <c r="E50">
-        <v>-0.02907791434453013</v>
+        <v>0.001303690750054129</v>
       </c>
       <c r="F50">
-        <v>0.04638249124943559</v>
+        <v>-0.05137457541955977</v>
       </c>
       <c r="G50">
-        <v>-0.006920278059577971</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.002333429979093222</v>
+      </c>
+      <c r="H50">
+        <v>0.004423077936826548</v>
+      </c>
+      <c r="I50">
+        <v>0.02107846319685894</v>
+      </c>
+      <c r="J50">
+        <v>0.04198994353878833</v>
+      </c>
+      <c r="K50">
+        <v>0.00257809778617558</v>
+      </c>
+      <c r="L50">
+        <v>-0.03383735738669604</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.03635348611372818</v>
+        <v>-0.02263207583667009</v>
       </c>
       <c r="C51">
-        <v>-0.01651182915343544</v>
+        <v>0.0005195373490192123</v>
       </c>
       <c r="D51">
-        <v>-0.01380115279525367</v>
+        <v>-0.01512851972537632</v>
       </c>
       <c r="E51">
-        <v>0.007374188333040648</v>
+        <v>-0.006421529902302488</v>
       </c>
       <c r="F51">
-        <v>0.0002043324430102944</v>
+        <v>0.02587944751632552</v>
       </c>
       <c r="G51">
-        <v>0.006325518376636841</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.004967304154334458</v>
+      </c>
+      <c r="H51">
+        <v>-0.008309019972069294</v>
+      </c>
+      <c r="I51">
+        <v>-0.008440076235753376</v>
+      </c>
+      <c r="J51">
+        <v>-0.02973446645921564</v>
+      </c>
+      <c r="K51">
+        <v>-0.04460639473704071</v>
+      </c>
+      <c r="L51">
+        <v>-0.01537807508432001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.065279600011626</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.03505561532316988</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01015370232064564</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.01952245880782406</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.03034942281048634</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-0.09846951568673837</v>
+      </c>
+      <c r="H52">
+        <v>-0.02612262880006178</v>
+      </c>
+      <c r="I52">
+        <v>0.08247638904331342</v>
+      </c>
+      <c r="J52">
+        <v>0.02604855044950306</v>
+      </c>
+      <c r="K52">
+        <v>0.02168380016734972</v>
+      </c>
+      <c r="L52">
+        <v>-0.01003259049198404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.159779522509601</v>
+        <v>-0.1628819058723324</v>
       </c>
       <c r="C53">
-        <v>-0.001640923209738357</v>
+        <v>-0.03610132535996343</v>
       </c>
       <c r="D53">
-        <v>-0.009127218076765142</v>
+        <v>-0.02514010217233911</v>
       </c>
       <c r="E53">
-        <v>0.0496597932750618</v>
+        <v>0.003004302731257698</v>
       </c>
       <c r="F53">
-        <v>0.2419302408973824</v>
+        <v>0.05937740782153248</v>
       </c>
       <c r="G53">
-        <v>-0.0708116450432756</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.170424218944718</v>
+      </c>
+      <c r="H53">
+        <v>-0.083157342635332</v>
+      </c>
+      <c r="I53">
+        <v>0.1857612561588695</v>
+      </c>
+      <c r="J53">
+        <v>0.1482771392555527</v>
+      </c>
+      <c r="K53">
+        <v>0.004541355172301943</v>
+      </c>
+      <c r="L53">
+        <v>-0.003783775398579455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.05165938750436642</v>
+        <v>-0.05538172632415843</v>
       </c>
       <c r="C54">
-        <v>-0.005357754233380249</v>
+        <v>-0.03852716693725823</v>
       </c>
       <c r="D54">
-        <v>-0.02638309658720521</v>
+        <v>-0.008558954583225573</v>
       </c>
       <c r="E54">
-        <v>-0.0520098203012121</v>
+        <v>-0.0243686378554572</v>
       </c>
       <c r="F54">
-        <v>0.02067644269661319</v>
+        <v>-0.1208090951019427</v>
       </c>
       <c r="G54">
-        <v>0.07934730489207774</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04494515360341701</v>
+      </c>
+      <c r="H54">
+        <v>-0.0468101083596822</v>
+      </c>
+      <c r="I54">
+        <v>-0.0560747229171233</v>
+      </c>
+      <c r="J54">
+        <v>0.04701681646705653</v>
+      </c>
+      <c r="K54">
+        <v>0.105227995422475</v>
+      </c>
+      <c r="L54">
+        <v>-0.03012715035113633</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.09502838777024593</v>
+        <v>-0.09268808772134496</v>
       </c>
       <c r="C55">
-        <v>-0.01360372092403927</v>
+        <v>-0.03740151266709077</v>
       </c>
       <c r="D55">
-        <v>-0.0160763180205177</v>
+        <v>-0.02090527201804973</v>
       </c>
       <c r="E55">
-        <v>-0.002702181242178262</v>
+        <v>0.01547248158306712</v>
       </c>
       <c r="F55">
-        <v>0.1810500333350504</v>
+        <v>0.006329388748370502</v>
       </c>
       <c r="G55">
-        <v>-0.01623328071694258</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.08211781175685108</v>
+      </c>
+      <c r="H55">
+        <v>-0.08423765928161545</v>
+      </c>
+      <c r="I55">
+        <v>0.1180111099441318</v>
+      </c>
+      <c r="J55">
+        <v>0.07305544358049589</v>
+      </c>
+      <c r="K55">
+        <v>0.02815647418699361</v>
+      </c>
+      <c r="L55">
+        <v>-0.03027291261498493</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1608196542433979</v>
+        <v>-0.1586120594120308</v>
       </c>
       <c r="C56">
-        <v>0.0005747351728030119</v>
+        <v>-0.05485688934883617</v>
       </c>
       <c r="D56">
-        <v>-0.005200634812993351</v>
+        <v>-0.04615452921142038</v>
       </c>
       <c r="E56">
-        <v>0.04966121849082615</v>
+        <v>0.01418236547951682</v>
       </c>
       <c r="F56">
-        <v>0.2419951826848835</v>
+        <v>0.02843500886518774</v>
       </c>
       <c r="G56">
-        <v>-0.07558025878775922</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1400348522314246</v>
+      </c>
+      <c r="H56">
+        <v>-0.06090485741919487</v>
+      </c>
+      <c r="I56">
+        <v>0.174401340172793</v>
+      </c>
+      <c r="J56">
+        <v>0.129525929254292</v>
+      </c>
+      <c r="K56">
+        <v>0.01907595655625246</v>
+      </c>
+      <c r="L56">
+        <v>0.01681398537392579</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2866,1697 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.03712198295305235</v>
+        <v>-0.04412914759077644</v>
       </c>
       <c r="C58">
-        <v>-0.05388037149219971</v>
+        <v>-0.04684855304986099</v>
       </c>
       <c r="D58">
-        <v>0.02437064845841323</v>
+        <v>0.03701799976701236</v>
       </c>
       <c r="E58">
-        <v>-0.2753000587038443</v>
+        <v>-0.09677942417868002</v>
       </c>
       <c r="F58">
-        <v>-0.4574754625756801</v>
+        <v>-0.04917495343472194</v>
       </c>
       <c r="G58">
-        <v>0.08930770327429026</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.01065835358184598</v>
+      </c>
+      <c r="H58">
+        <v>0.1213515800160979</v>
+      </c>
+      <c r="I58">
+        <v>-0.1667477973893395</v>
+      </c>
+      <c r="J58">
+        <v>-0.182394394645123</v>
+      </c>
+      <c r="K58">
+        <v>0.122215577892223</v>
+      </c>
+      <c r="L58">
+        <v>-0.5228520545123078</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.1683765202803796</v>
+        <v>-0.1982827842408423</v>
       </c>
       <c r="C59">
-        <v>0.3848492903118909</v>
+        <v>0.2984729183466199</v>
       </c>
       <c r="D59">
-        <v>-0.0898625570862721</v>
+        <v>-0.02946563710810494</v>
       </c>
       <c r="E59">
-        <v>0.07535318468639687</v>
+        <v>0.04136637866023529</v>
       </c>
       <c r="F59">
-        <v>0.05125674185146846</v>
+        <v>-0.02449845895602703</v>
       </c>
       <c r="G59">
-        <v>0.02332529931179396</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02418062179589985</v>
+      </c>
+      <c r="H59">
+        <v>-0.08735957173454519</v>
+      </c>
+      <c r="I59">
+        <v>0.04806733989334385</v>
+      </c>
+      <c r="J59">
+        <v>0.002083711778502831</v>
+      </c>
+      <c r="K59">
+        <v>-0.01109265722315944</v>
+      </c>
+      <c r="L59">
+        <v>0.06769498931438511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2653184783390468</v>
+        <v>-0.245376530888889</v>
       </c>
       <c r="C60">
-        <v>-0.07292874475469337</v>
+        <v>-0.09830401852465279</v>
       </c>
       <c r="D60">
-        <v>-0.06951166807294763</v>
+        <v>-0.1015942750482362</v>
       </c>
       <c r="E60">
-        <v>0.08725252676880448</v>
+        <v>0.01406193273811851</v>
       </c>
       <c r="F60">
-        <v>-0.08881875207042711</v>
+        <v>0.1448128420558987</v>
       </c>
       <c r="G60">
-        <v>-0.201339563411427</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.03168228319134227</v>
+      </c>
+      <c r="H60">
+        <v>0.1210496002234129</v>
+      </c>
+      <c r="I60">
+        <v>-0.03279692332543197</v>
+      </c>
+      <c r="J60">
+        <v>0.09452368633694518</v>
+      </c>
+      <c r="K60">
+        <v>-0.1889360049164875</v>
+      </c>
+      <c r="L60">
+        <v>-0.02937470953144805</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.09194790383054766</v>
+        <v>-0.1049623953906307</v>
       </c>
       <c r="C61">
-        <v>-0.01889078951878495</v>
+        <v>-0.05006327463413332</v>
       </c>
       <c r="D61">
-        <v>-0.005685461241982962</v>
+        <v>-0.03879302285014319</v>
       </c>
       <c r="E61">
-        <v>-0.02604056806328751</v>
+        <v>0.0613231014802471</v>
       </c>
       <c r="F61">
-        <v>0.02270896852128325</v>
+        <v>-0.1536794461077059</v>
       </c>
       <c r="G61">
-        <v>0.06068573488238156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.06695589169961935</v>
+      </c>
+      <c r="H61">
+        <v>-0.031218176117036</v>
+      </c>
+      <c r="I61">
+        <v>0.03876280113099945</v>
+      </c>
+      <c r="J61">
+        <v>-0.09588230892212352</v>
+      </c>
+      <c r="K61">
+        <v>-0.03706401195699847</v>
+      </c>
+      <c r="L61">
+        <v>-0.02064050560415233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.1431915485915409</v>
+        <v>-0.1522378132122384</v>
       </c>
       <c r="C62">
-        <v>-0.02528899444275903</v>
+        <v>-0.05370416452483334</v>
       </c>
       <c r="D62">
-        <v>0.03930401187872296</v>
+        <v>-0.02208318072535602</v>
       </c>
       <c r="E62">
-        <v>0.1167442229368659</v>
+        <v>0.024127952073373</v>
       </c>
       <c r="F62">
-        <v>0.2418599001842267</v>
+        <v>0.04919153626575659</v>
       </c>
       <c r="G62">
-        <v>-0.02806202298393027</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.123339726242027</v>
+      </c>
+      <c r="H62">
+        <v>-0.04332048061539267</v>
+      </c>
+      <c r="I62">
+        <v>0.1797224184436686</v>
+      </c>
+      <c r="J62">
+        <v>0.1520386393623947</v>
+      </c>
+      <c r="K62">
+        <v>0.06928973584126165</v>
+      </c>
+      <c r="L62">
+        <v>0.02093390603506992</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.04090615001966783</v>
+        <v>-0.03999940094078118</v>
       </c>
       <c r="C63">
-        <v>-0.01303532830076255</v>
+        <v>-0.01775999047698894</v>
       </c>
       <c r="D63">
-        <v>0.00412165824410667</v>
+        <v>0.0189649811299098</v>
       </c>
       <c r="E63">
-        <v>-0.00747948526628957</v>
+        <v>0.005801741732620245</v>
       </c>
       <c r="F63">
-        <v>0.01309701155898417</v>
+        <v>-0.05887065184315014</v>
       </c>
       <c r="G63">
-        <v>0.03694053958728249</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01932446245783258</v>
+      </c>
+      <c r="H63">
+        <v>0.002877575293838451</v>
+      </c>
+      <c r="I63">
+        <v>-0.01595260972075319</v>
+      </c>
+      <c r="J63">
+        <v>0.002074908976771443</v>
+      </c>
+      <c r="K63">
+        <v>-0.003385833048713044</v>
+      </c>
+      <c r="L63">
+        <v>-0.05246196111590144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.1044195757388456</v>
+        <v>-0.09758223285386393</v>
       </c>
       <c r="C64">
-        <v>-0.01419439291304678</v>
+        <v>-0.04030465151692347</v>
       </c>
       <c r="D64">
-        <v>-0.04407856402445001</v>
+        <v>-0.04606988579673584</v>
       </c>
       <c r="E64">
-        <v>-0.03684635613229293</v>
+        <v>-0.02277456435879307</v>
       </c>
       <c r="F64">
-        <v>-0.02839499688807693</v>
+        <v>-0.08630285942348526</v>
       </c>
       <c r="G64">
-        <v>0.05289616252404156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.01090005811709987</v>
+      </c>
+      <c r="H64">
+        <v>0.03242276698146038</v>
+      </c>
+      <c r="I64">
+        <v>-0.07035165894005399</v>
+      </c>
+      <c r="J64">
+        <v>-0.02483117928664912</v>
+      </c>
+      <c r="K64">
+        <v>-0.09574951800789279</v>
+      </c>
+      <c r="L64">
+        <v>0.0336678717541835</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.122765315879351</v>
+        <v>-0.1164741890663736</v>
       </c>
       <c r="C65">
-        <v>-0.03378147193191609</v>
+        <v>-0.02756898121101215</v>
       </c>
       <c r="D65">
-        <v>-0.02490492446836521</v>
+        <v>0.02704257917747278</v>
       </c>
       <c r="E65">
-        <v>-0.049250929074923</v>
+        <v>0.008085273044244888</v>
       </c>
       <c r="F65">
-        <v>-0.1965399113248786</v>
+        <v>0.04656761611098523</v>
       </c>
       <c r="G65">
-        <v>-0.1635263309870761</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.09999001319141113</v>
+      </c>
+      <c r="H65">
+        <v>0.09700240947694962</v>
+      </c>
+      <c r="I65">
+        <v>-0.3328061808747236</v>
+      </c>
+      <c r="J65">
+        <v>0.5080325348795898</v>
+      </c>
+      <c r="K65">
+        <v>-0.100011241694335</v>
+      </c>
+      <c r="L65">
+        <v>-0.284927913216347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1587703352713316</v>
+        <v>-0.1432350441042949</v>
       </c>
       <c r="C66">
-        <v>-0.05167946215388398</v>
+        <v>-0.111150397672031</v>
       </c>
       <c r="D66">
-        <v>0.01570160747617879</v>
+        <v>-0.02816220691295139</v>
       </c>
       <c r="E66">
-        <v>-0.02299564499702309</v>
+        <v>0.1132704684254694</v>
       </c>
       <c r="F66">
-        <v>0.0342882140682194</v>
+        <v>-0.1639980326560476</v>
       </c>
       <c r="G66">
-        <v>0.2871518557773992</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.08094328371207249</v>
+      </c>
+      <c r="H66">
+        <v>0.04298357425735368</v>
+      </c>
+      <c r="I66">
+        <v>0.07759897894536541</v>
+      </c>
+      <c r="J66">
+        <v>-0.1706847707553232</v>
+      </c>
+      <c r="K66">
+        <v>-0.1858148637017253</v>
+      </c>
+      <c r="L66">
+        <v>0.01384827471149788</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.1009230634657119</v>
+        <v>-0.07631325204743532</v>
       </c>
       <c r="C67">
-        <v>-0.04250272911663748</v>
+        <v>-0.04519922928622608</v>
       </c>
       <c r="D67">
-        <v>-0.01845592209140944</v>
+        <v>-0.01076222293337091</v>
       </c>
       <c r="E67">
-        <v>0.009298992909398365</v>
+        <v>-0.01048060829676606</v>
       </c>
       <c r="F67">
-        <v>0.007139799993247194</v>
+        <v>0.04718537696737937</v>
       </c>
       <c r="G67">
-        <v>0.05040742886962631</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02798377219182973</v>
+      </c>
+      <c r="H67">
+        <v>-0.04437593102407932</v>
+      </c>
+      <c r="I67">
+        <v>0.004631519829942677</v>
+      </c>
+      <c r="J67">
+        <v>-0.02282072208243167</v>
+      </c>
+      <c r="K67">
+        <v>-0.09683233689755376</v>
+      </c>
+      <c r="L67">
+        <v>0.1859041191775077</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.04858997769375239</v>
+        <v>-0.1021466295561032</v>
       </c>
       <c r="C68">
-        <v>0.2926538776402594</v>
+        <v>0.2774542272865788</v>
       </c>
       <c r="D68">
-        <v>-0.03783966000209226</v>
+        <v>0.01560095883740061</v>
       </c>
       <c r="E68">
-        <v>0.004945757175184196</v>
+        <v>0.01952455534938004</v>
       </c>
       <c r="F68">
-        <v>-0.008719372639033758</v>
+        <v>-0.04960129007128062</v>
       </c>
       <c r="G68">
-        <v>-0.02200449751941493</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.008507579520053321</v>
+      </c>
+      <c r="H68">
+        <v>-0.01776160272660789</v>
+      </c>
+      <c r="I68">
+        <v>-0.01537291217535349</v>
+      </c>
+      <c r="J68">
+        <v>0.01967120370632778</v>
+      </c>
+      <c r="K68">
+        <v>-0.002577162740091172</v>
+      </c>
+      <c r="L68">
+        <v>-0.04469907211022744</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.0465917130221398</v>
+        <v>-0.03950945468255349</v>
       </c>
       <c r="C69">
-        <v>-0.01834221292764978</v>
+        <v>-0.002457430349021475</v>
       </c>
       <c r="D69">
-        <v>-0.009553759339593085</v>
+        <v>-0.009005218150499962</v>
       </c>
       <c r="E69">
-        <v>-0.002423426430928506</v>
+        <v>-0.008949895187411346</v>
       </c>
       <c r="F69">
-        <v>0.0237002172919813</v>
+        <v>-0.01300566593091453</v>
       </c>
       <c r="G69">
-        <v>0.02920379133508969</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02870287142642602</v>
+      </c>
+      <c r="H69">
+        <v>-0.003854172757262194</v>
+      </c>
+      <c r="I69">
+        <v>-0.008876377104638474</v>
+      </c>
+      <c r="J69">
+        <v>0.02865680092611306</v>
+      </c>
+      <c r="K69">
+        <v>0.0002541566460776111</v>
+      </c>
+      <c r="L69">
+        <v>-0.004371639012940705</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.0759071299409606</v>
+        <v>-0.04991021128836938</v>
       </c>
       <c r="C70">
-        <v>-0.0100032444521083</v>
+        <v>-0.0144787121659904</v>
       </c>
       <c r="D70">
-        <v>-0.03971268609074631</v>
+        <v>-0.03839508985575293</v>
       </c>
       <c r="E70">
-        <v>0.03286991858430611</v>
+        <v>0.02147940370651491</v>
       </c>
       <c r="F70">
-        <v>-0.08437921202678533</v>
+        <v>-0.03562510683856424</v>
       </c>
       <c r="G70">
-        <v>0.01588525173604721</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.006119772281986675</v>
+      </c>
+      <c r="H70">
+        <v>0.001701923263086023</v>
+      </c>
+      <c r="I70">
+        <v>-0.1412503652942417</v>
+      </c>
+      <c r="J70">
+        <v>0.01850188329096791</v>
+      </c>
+      <c r="K70">
+        <v>0.1425033145570141</v>
+      </c>
+      <c r="L70">
+        <v>0.145254360824983</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.0568111775133238</v>
+        <v>-0.1181742854839403</v>
       </c>
       <c r="C71">
-        <v>0.2945133090060446</v>
+        <v>0.2902439920691952</v>
       </c>
       <c r="D71">
-        <v>-0.05725962353010764</v>
+        <v>-0.009278201311314698</v>
       </c>
       <c r="E71">
-        <v>0.00957683542844418</v>
+        <v>0.003088963615881818</v>
       </c>
       <c r="F71">
-        <v>-0.01341543470537223</v>
+        <v>-0.05780489046755063</v>
       </c>
       <c r="G71">
-        <v>0.01250890136514313</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01929185061462372</v>
+      </c>
+      <c r="H71">
+        <v>0.006104744172236254</v>
+      </c>
+      <c r="I71">
+        <v>0.003732691612506452</v>
+      </c>
+      <c r="J71">
+        <v>0.002720456366396552</v>
+      </c>
+      <c r="K71">
+        <v>-0.03983154935260802</v>
+      </c>
+      <c r="L71">
+        <v>-0.01645246036038528</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.1517209245128144</v>
+        <v>-0.1473855907000922</v>
       </c>
       <c r="C72">
-        <v>0.04086197055572172</v>
+        <v>-0.01128592855773403</v>
       </c>
       <c r="D72">
-        <v>0.2337180655188087</v>
+        <v>0.09386329670130661</v>
       </c>
       <c r="E72">
-        <v>0.02713544344491991</v>
+        <v>0.03782543849375499</v>
       </c>
       <c r="F72">
-        <v>0.03822912369871133</v>
+        <v>-0.003779987641191646</v>
       </c>
       <c r="G72">
-        <v>0.05824087355569312</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03140765754810083</v>
+      </c>
+      <c r="H72">
+        <v>0.04647521445246365</v>
+      </c>
+      <c r="I72">
+        <v>0.03401512472132946</v>
+      </c>
+      <c r="J72">
+        <v>0.15779802473653</v>
+      </c>
+      <c r="K72">
+        <v>-0.05117036333410101</v>
+      </c>
+      <c r="L72">
+        <v>0.01228003963848572</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2873439614558705</v>
+        <v>-0.2410009067023121</v>
       </c>
       <c r="C73">
-        <v>-0.1661039624001974</v>
+        <v>-0.1145979937632658</v>
       </c>
       <c r="D73">
-        <v>-0.05147963607947281</v>
+        <v>-0.161535167720481</v>
       </c>
       <c r="E73">
-        <v>0.1705306040421435</v>
+        <v>0.06925246357316575</v>
       </c>
       <c r="F73">
-        <v>-0.2887081140161626</v>
+        <v>0.4299455919202343</v>
       </c>
       <c r="G73">
-        <v>-0.2766808146442978</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.04147271581743482</v>
+      </c>
+      <c r="H73">
+        <v>0.1992950897148879</v>
+      </c>
+      <c r="I73">
+        <v>-0.1435836838204411</v>
+      </c>
+      <c r="J73">
+        <v>-0.2623991541403048</v>
+      </c>
+      <c r="K73">
+        <v>-0.2613046688108723</v>
+      </c>
+      <c r="L73">
+        <v>-0.03103095530049934</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.09743555914444721</v>
+        <v>-0.1141844669469739</v>
       </c>
       <c r="C74">
-        <v>-0.03702749213970957</v>
+        <v>-0.06727161240630042</v>
       </c>
       <c r="D74">
-        <v>0.003325263613505525</v>
+        <v>-0.007411680314954805</v>
       </c>
       <c r="E74">
-        <v>0.01096842288210524</v>
+        <v>0.005794649071127556</v>
       </c>
       <c r="F74">
-        <v>0.09813853886275423</v>
+        <v>0.02260356056990307</v>
       </c>
       <c r="G74">
-        <v>-0.03901189268891209</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.1419377177565283</v>
+      </c>
+      <c r="H74">
+        <v>-0.01389484010378787</v>
+      </c>
+      <c r="I74">
+        <v>0.08312457139323791</v>
+      </c>
+      <c r="J74">
+        <v>0.0668987225982236</v>
+      </c>
+      <c r="K74">
+        <v>0.0247921306073336</v>
+      </c>
+      <c r="L74">
+        <v>-0.02369501387843615</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.09441248754156033</v>
+        <v>-0.1058056387716798</v>
       </c>
       <c r="C75">
-        <v>-0.01605587439833219</v>
+        <v>-0.04782174726134115</v>
       </c>
       <c r="D75">
-        <v>0.02056927959972862</v>
+        <v>-0.0002872875899798823</v>
       </c>
       <c r="E75">
-        <v>0.03416675396182193</v>
+        <v>0.006536797136326225</v>
       </c>
       <c r="F75">
-        <v>0.1213430445568518</v>
+        <v>0.03454733759163062</v>
       </c>
       <c r="G75">
-        <v>-0.0703111676473244</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.07218192060028449</v>
+      </c>
+      <c r="H75">
+        <v>-0.06265737441253334</v>
+      </c>
+      <c r="I75">
+        <v>0.09927984279010102</v>
+      </c>
+      <c r="J75">
+        <v>0.06438129582350396</v>
+      </c>
+      <c r="K75">
+        <v>0.04245681451528868</v>
+      </c>
+      <c r="L75">
+        <v>-0.0267681148604822</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.1380717764066387</v>
+        <v>-0.06372074876272001</v>
       </c>
       <c r="C76">
-        <v>-0.03311550232122124</v>
+        <v>-0.03239735516236966</v>
       </c>
       <c r="D76">
-        <v>-0.01595572531569788</v>
+        <v>-0.02359600706895644</v>
       </c>
       <c r="E76">
-        <v>-0.01964063552076079</v>
+        <v>-0.01155448944372013</v>
       </c>
       <c r="F76">
-        <v>0.2279196754337668</v>
+        <v>0.06822243407706091</v>
       </c>
       <c r="G76">
-        <v>-0.1140195092093437</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.07154664538995108</v>
+      </c>
+      <c r="H76">
+        <v>-0.08717893100621428</v>
+      </c>
+      <c r="I76">
+        <v>0.09042672343637467</v>
+      </c>
+      <c r="J76">
+        <v>0.05329623123880552</v>
+      </c>
+      <c r="K76">
+        <v>0.01466001193295337</v>
+      </c>
+      <c r="L76">
+        <v>-0.01527316770846031</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.08624090297023904</v>
+        <v>-0.07280142015777581</v>
       </c>
       <c r="C77">
-        <v>0.0008783618182394282</v>
+        <v>-0.03110361955162283</v>
       </c>
       <c r="D77">
-        <v>-0.05047735743127753</v>
+        <v>-0.04251932801597443</v>
       </c>
       <c r="E77">
-        <v>-0.06396990027431601</v>
+        <v>0.0005621185937671655</v>
       </c>
       <c r="F77">
-        <v>-0.1376790883041776</v>
+        <v>-0.2096771717010339</v>
       </c>
       <c r="G77">
-        <v>0.1986870948852801</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1248560255401972</v>
+      </c>
+      <c r="H77">
+        <v>-0.006406455003006169</v>
+      </c>
+      <c r="I77">
+        <v>-0.1609031670510225</v>
+      </c>
+      <c r="J77">
+        <v>0.08865820248144349</v>
+      </c>
+      <c r="K77">
+        <v>-0.2130817618078744</v>
+      </c>
+      <c r="L77">
+        <v>0.5417729945988535</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.2096529489980495</v>
+        <v>-0.1590985484829442</v>
       </c>
       <c r="C78">
-        <v>-0.07249702149762983</v>
+        <v>-0.1046630606713175</v>
       </c>
       <c r="D78">
-        <v>-0.06696801580711109</v>
+        <v>0.08092942167912823</v>
       </c>
       <c r="E78">
-        <v>-0.184774363611358</v>
+        <v>-0.1826948889047355</v>
       </c>
       <c r="F78">
-        <v>0.0006371454976143805</v>
+        <v>0.08694416770061374</v>
       </c>
       <c r="G78">
-        <v>0.1366288250281323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.6109899432028575</v>
+      </c>
+      <c r="H78">
+        <v>-0.6415137679453529</v>
+      </c>
+      <c r="I78">
+        <v>0.1314484045044799</v>
+      </c>
+      <c r="J78">
+        <v>-0.05644016075077617</v>
+      </c>
+      <c r="K78">
+        <v>-0.1120122676951669</v>
+      </c>
+      <c r="L78">
+        <v>-0.1040231297914742</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.1359365418280037</v>
+        <v>-0.1322795775088522</v>
       </c>
       <c r="C79">
-        <v>-0.01349435906978865</v>
+        <v>-0.04788091765783965</v>
       </c>
       <c r="D79">
-        <v>0.00414799019195478</v>
+        <v>-0.01352030736026817</v>
       </c>
       <c r="E79">
-        <v>0.01554599634199454</v>
+        <v>-0.008618006023644639</v>
       </c>
       <c r="F79">
-        <v>0.1713934832570331</v>
+        <v>-0.001287723103262901</v>
       </c>
       <c r="G79">
-        <v>-0.001226399342030262</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.09511697096343515</v>
+      </c>
+      <c r="H79">
+        <v>-0.02528014396308084</v>
+      </c>
+      <c r="I79">
+        <v>0.119592687358065</v>
+      </c>
+      <c r="J79">
+        <v>0.1205857193266726</v>
+      </c>
+      <c r="K79">
+        <v>0.02665308875295301</v>
+      </c>
+      <c r="L79">
+        <v>-0.01486180164937266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.03701411943220422</v>
+        <v>-0.06505996491442223</v>
       </c>
       <c r="C80">
-        <v>-0.01342964495772265</v>
+        <v>-0.04336939378012514</v>
       </c>
       <c r="D80">
-        <v>-0.01709327899875693</v>
+        <v>-0.04081752192906785</v>
       </c>
       <c r="E80">
-        <v>0.02875983183685183</v>
+        <v>0.06087903815128112</v>
       </c>
       <c r="F80">
-        <v>-0.01660219184252885</v>
+        <v>-0.06106586752739623</v>
       </c>
       <c r="G80">
-        <v>0.07665792686518509</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04189592399288598</v>
+      </c>
+      <c r="H80">
+        <v>-0.08593978688947067</v>
+      </c>
+      <c r="I80">
+        <v>-0.06643316449527444</v>
+      </c>
+      <c r="J80">
+        <v>-0.06785678582080988</v>
+      </c>
+      <c r="K80">
+        <v>0.04552263641589658</v>
+      </c>
+      <c r="L80">
+        <v>-0.1256895560874076</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1092151811238679</v>
+        <v>-0.1309013535387225</v>
       </c>
       <c r="C81">
-        <v>-0.01571950788784923</v>
+        <v>-0.0574429552701447</v>
       </c>
       <c r="D81">
-        <v>-0.008469734839474725</v>
+        <v>-0.02316563111934636</v>
       </c>
       <c r="E81">
-        <v>0.01867397447818543</v>
+        <v>-0.002852686463394745</v>
       </c>
       <c r="F81">
-        <v>0.1369205505377573</v>
+        <v>-0.01317465213799239</v>
       </c>
       <c r="G81">
-        <v>-0.04543566559378127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.07424042281584163</v>
+      </c>
+      <c r="H81">
+        <v>-0.01881922504214269</v>
+      </c>
+      <c r="I81">
+        <v>0.1159425190130193</v>
+      </c>
+      <c r="J81">
+        <v>0.06106372009423053</v>
+      </c>
+      <c r="K81">
+        <v>0.05827152870018452</v>
+      </c>
+      <c r="L81">
+        <v>-0.009866963002010124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.11109296357491</v>
+        <v>-0.1415292843915241</v>
       </c>
       <c r="C82">
-        <v>-0.02993299746892615</v>
+        <v>-0.05289598848876476</v>
       </c>
       <c r="D82">
-        <v>-0.04910907372827376</v>
+        <v>-0.05047553725176507</v>
       </c>
       <c r="E82">
-        <v>0.04862143464852258</v>
+        <v>0.0136855591099639</v>
       </c>
       <c r="F82">
-        <v>0.2453177195641426</v>
+        <v>0.01914944833667843</v>
       </c>
       <c r="G82">
-        <v>-0.0008643226944282506</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.18222026863689</v>
+      </c>
+      <c r="H82">
+        <v>-0.07915534447012934</v>
+      </c>
+      <c r="I82">
+        <v>0.2125101697314556</v>
+      </c>
+      <c r="J82">
+        <v>0.03738818719333511</v>
+      </c>
+      <c r="K82">
+        <v>0.09456379738586632</v>
+      </c>
+      <c r="L82">
+        <v>0.03207520223917393</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.1021344285516876</v>
+        <v>-0.0908856547489198</v>
       </c>
       <c r="C83">
-        <v>-0.06216333375860449</v>
+        <v>-0.1048976144965005</v>
       </c>
       <c r="D83">
-        <v>-0.0579518622709985</v>
+        <v>-0.01713028097245451</v>
       </c>
       <c r="E83">
-        <v>0.02346242474017508</v>
+        <v>-0.003332055810322419</v>
       </c>
       <c r="F83">
-        <v>-0.0700228413637307</v>
+        <v>-0.07141727054248065</v>
       </c>
       <c r="G83">
-        <v>0.07623008776408415</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.01069593849793639</v>
+      </c>
+      <c r="H83">
+        <v>-0.06997827690489433</v>
+      </c>
+      <c r="I83">
+        <v>-0.1343732542252623</v>
+      </c>
+      <c r="J83">
+        <v>0.02049273447432814</v>
+      </c>
+      <c r="K83">
+        <v>0.01363317231272586</v>
+      </c>
+      <c r="L83">
+        <v>0.06120400593549329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.0541402140988197</v>
+        <v>-0.05416455255617425</v>
       </c>
       <c r="C84">
-        <v>-0.02485461183389575</v>
+        <v>0.03239677917045618</v>
       </c>
       <c r="D84">
-        <v>0.04331036177513753</v>
+        <v>-0.008623981200688401</v>
       </c>
       <c r="E84">
-        <v>-0.03526805911612999</v>
+        <v>0.01897910926975698</v>
       </c>
       <c r="F84">
-        <v>0.02538177209751665</v>
+        <v>0.03091242570290859</v>
       </c>
       <c r="G84">
-        <v>-0.02699405478388736</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.1569383876224805</v>
+      </c>
+      <c r="H84">
+        <v>0.06668833894312103</v>
+      </c>
+      <c r="I84">
+        <v>0.1358648389430851</v>
+      </c>
+      <c r="J84">
+        <v>-0.3256708498587202</v>
+      </c>
+      <c r="K84">
+        <v>0.1173978249982347</v>
+      </c>
+      <c r="L84">
+        <v>-0.1219699705622214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.1003227594654165</v>
+        <v>-0.1175098107548725</v>
       </c>
       <c r="C85">
-        <v>-0.02390955750661448</v>
+        <v>-0.04358244600198184</v>
       </c>
       <c r="D85">
-        <v>-0.02398128274642174</v>
+        <v>-0.04604816834434385</v>
       </c>
       <c r="E85">
-        <v>0.0188952649764921</v>
+        <v>-0.002719103349056316</v>
       </c>
       <c r="F85">
-        <v>0.1990647014713875</v>
+        <v>0.00312752090799335</v>
       </c>
       <c r="G85">
-        <v>-0.0160688577219054</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1081250425050125</v>
+      </c>
+      <c r="H85">
+        <v>-0.0472223079518934</v>
+      </c>
+      <c r="I85">
+        <v>0.1358374219691081</v>
+      </c>
+      <c r="J85">
+        <v>0.1087203960740305</v>
+      </c>
+      <c r="K85">
+        <v>0.01859270520842981</v>
+      </c>
+      <c r="L85">
+        <v>-0.007477750162727552</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.06387270950516459</v>
+        <v>-0.07912593427281847</v>
       </c>
       <c r="C86">
-        <v>-0.02979374303568713</v>
+        <v>-0.02045186646156387</v>
       </c>
       <c r="D86">
-        <v>-0.04806170375133061</v>
+        <v>-0.0754707364102162</v>
       </c>
       <c r="E86">
-        <v>-0.0491898671783826</v>
+        <v>-0.05316769768622017</v>
       </c>
       <c r="F86">
-        <v>-0.03871819834663013</v>
+        <v>0.02687807551687841</v>
       </c>
       <c r="G86">
-        <v>0.1465285899344774</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.4753257002913596</v>
+      </c>
+      <c r="H86">
+        <v>0.5164056088354546</v>
+      </c>
+      <c r="I86">
+        <v>0.4192262870773038</v>
+      </c>
+      <c r="J86">
+        <v>0.1088414813541394</v>
+      </c>
+      <c r="K86">
+        <v>0.2404541748692842</v>
+      </c>
+      <c r="L86">
+        <v>0.0425331346551454</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.1030686078654009</v>
+        <v>-0.1098622193185114</v>
       </c>
       <c r="C87">
-        <v>-0.06103676357954456</v>
+        <v>-0.09794494946219352</v>
       </c>
       <c r="D87">
-        <v>-0.01776840744873892</v>
+        <v>-0.02875133370376093</v>
       </c>
       <c r="E87">
-        <v>-0.0493626986021526</v>
+        <v>-0.0477531925816182</v>
       </c>
       <c r="F87">
-        <v>-0.02420151802494154</v>
+        <v>-0.113553122372884</v>
       </c>
       <c r="G87">
-        <v>0.1156060074607622</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.09030355450101911</v>
+      </c>
+      <c r="H87">
+        <v>0.0640339830580192</v>
+      </c>
+      <c r="I87">
+        <v>-0.1369753968417403</v>
+      </c>
+      <c r="J87">
+        <v>0.05496281293071818</v>
+      </c>
+      <c r="K87">
+        <v>0.05874953136708649</v>
+      </c>
+      <c r="L87">
+        <v>0.2563959583080117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.06654163067650912</v>
+        <v>-0.05719166240354195</v>
       </c>
       <c r="C88">
-        <v>-0.03208778553368029</v>
+        <v>-0.04897234679418546</v>
       </c>
       <c r="D88">
-        <v>-0.02521587380354014</v>
+        <v>-0.03270837380081248</v>
       </c>
       <c r="E88">
-        <v>-0.01092022182160401</v>
+        <v>0.02218060827191607</v>
       </c>
       <c r="F88">
-        <v>-0.004298847390002389</v>
+        <v>-0.04320994130723781</v>
       </c>
       <c r="G88">
-        <v>0.05790365440710196</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02961615818420138</v>
+      </c>
+      <c r="H88">
+        <v>0.005714545573048321</v>
+      </c>
+      <c r="I88">
+        <v>-0.02001356756262995</v>
+      </c>
+      <c r="J88">
+        <v>-0.02687672545151953</v>
+      </c>
+      <c r="K88">
+        <v>-0.02873219947352234</v>
+      </c>
+      <c r="L88">
+        <v>-0.04955358318646579</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.1066660886386992</v>
+        <v>-0.1743905037838058</v>
       </c>
       <c r="C89">
-        <v>0.3649777636254452</v>
+        <v>0.3734145691006885</v>
       </c>
       <c r="D89">
-        <v>-0.1114365304283037</v>
+        <v>-0.02556671965058617</v>
       </c>
       <c r="E89">
-        <v>-0.009964780292107083</v>
+        <v>-0.05441015299143379</v>
       </c>
       <c r="F89">
-        <v>-0.07459514014823181</v>
+        <v>-0.01896284682768852</v>
       </c>
       <c r="G89">
-        <v>0.0148795934557756</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.01919900867113259</v>
+      </c>
+      <c r="H89">
+        <v>-0.03069431751423524</v>
+      </c>
+      <c r="I89">
+        <v>-0.05894190299050921</v>
+      </c>
+      <c r="J89">
+        <v>-0.0709773517948946</v>
+      </c>
+      <c r="K89">
+        <v>0.02219886751823552</v>
+      </c>
+      <c r="L89">
+        <v>-0.02723649983708123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.0855805801334313</v>
+        <v>-0.1357321018793828</v>
       </c>
       <c r="C90">
-        <v>0.2921727333009482</v>
+        <v>0.2764278469743595</v>
       </c>
       <c r="D90">
-        <v>-0.05346841210515784</v>
+        <v>-0.01587078738256356</v>
       </c>
       <c r="E90">
-        <v>-0.04307182537099725</v>
+        <v>0.001383011160271588</v>
       </c>
       <c r="F90">
-        <v>-0.04719097366631862</v>
+        <v>-0.05592635737258481</v>
       </c>
       <c r="G90">
-        <v>0.04665092605995035</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.005217042606065078</v>
+      </c>
+      <c r="H90">
+        <v>0.04720527777663106</v>
+      </c>
+      <c r="I90">
+        <v>-0.01526500456025149</v>
+      </c>
+      <c r="J90">
+        <v>-0.03511233091527394</v>
+      </c>
+      <c r="K90">
+        <v>-0.04564827253174396</v>
+      </c>
+      <c r="L90">
+        <v>-0.001270587046806993</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.08433316125576677</v>
+        <v>-0.082230898330688</v>
       </c>
       <c r="C91">
-        <v>-0.02235424455309087</v>
+        <v>-0.03845439317764157</v>
       </c>
       <c r="D91">
-        <v>-0.004104085572974242</v>
+        <v>-0.0252034305100526</v>
       </c>
       <c r="E91">
-        <v>0.01822600993983715</v>
+        <v>-0.006746805009260471</v>
       </c>
       <c r="F91">
-        <v>0.08142283484983315</v>
+        <v>0.02694590730029848</v>
       </c>
       <c r="G91">
-        <v>-0.07403669018621027</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.06300824474662724</v>
+      </c>
+      <c r="H91">
+        <v>-0.02807471366982823</v>
+      </c>
+      <c r="I91">
+        <v>0.08196826742939127</v>
+      </c>
+      <c r="J91">
+        <v>0.0529950832393998</v>
+      </c>
+      <c r="K91">
+        <v>0.02286209804764866</v>
+      </c>
+      <c r="L91">
+        <v>-0.02050068382523586</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.07928710490264511</v>
+        <v>-0.1471975225315015</v>
       </c>
       <c r="C92">
-        <v>0.339710838266907</v>
+        <v>0.3283766535442236</v>
       </c>
       <c r="D92">
-        <v>-0.0746677319721671</v>
+        <v>-0.003820452141930313</v>
       </c>
       <c r="E92">
-        <v>-0.02197040961501217</v>
+        <v>-0.03917177307469085</v>
       </c>
       <c r="F92">
-        <v>-0.03720991132782948</v>
+        <v>-0.05923616866702177</v>
       </c>
       <c r="G92">
-        <v>-0.03243512285100211</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0005736230220294502</v>
+      </c>
+      <c r="H92">
+        <v>-0.05897173289594929</v>
+      </c>
+      <c r="I92">
+        <v>0.008218032475999741</v>
+      </c>
+      <c r="J92">
+        <v>-0.02625641596388799</v>
+      </c>
+      <c r="K92">
+        <v>-0.009943721224076486</v>
+      </c>
+      <c r="L92">
+        <v>-0.02190048447775382</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.09664010478008997</v>
+        <v>-0.1404351564184918</v>
       </c>
       <c r="C93">
-        <v>0.2931928823910898</v>
+        <v>0.3104515584383437</v>
       </c>
       <c r="D93">
-        <v>-0.05327007622358682</v>
+        <v>-0.03114275078545105</v>
       </c>
       <c r="E93">
-        <v>-0.004605792137630541</v>
+        <v>0.02741392309888276</v>
       </c>
       <c r="F93">
-        <v>-0.02393059158795816</v>
+        <v>-0.0276519357244494</v>
       </c>
       <c r="G93">
-        <v>-0.01118491112204634</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.00328012581960374</v>
+      </c>
+      <c r="H93">
+        <v>0.05054842280794151</v>
+      </c>
+      <c r="I93">
+        <v>-0.001607540179656229</v>
+      </c>
+      <c r="J93">
+        <v>0.003105598556324635</v>
+      </c>
+      <c r="K93">
+        <v>0.01712692724296425</v>
+      </c>
+      <c r="L93">
+        <v>-0.0008516918462476655</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.09411509132262769</v>
+        <v>-0.1220971102433505</v>
       </c>
       <c r="C94">
-        <v>-0.04452084340901219</v>
+        <v>-0.05524056017266313</v>
       </c>
       <c r="D94">
-        <v>0.00967232169741232</v>
+        <v>-0.0104265147827778</v>
       </c>
       <c r="E94">
-        <v>0.003228109006280694</v>
+        <v>-0.01779106389388459</v>
       </c>
       <c r="F94">
-        <v>0.1371707532546618</v>
+        <v>0.04585449427755158</v>
       </c>
       <c r="G94">
-        <v>-0.07070421368720407</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.09989765993410152</v>
+      </c>
+      <c r="H94">
+        <v>-0.04216627196590121</v>
+      </c>
+      <c r="I94">
+        <v>0.1106985371819557</v>
+      </c>
+      <c r="J94">
+        <v>0.0382524353608618</v>
+      </c>
+      <c r="K94">
+        <v>0.01298227002758924</v>
+      </c>
+      <c r="L94">
+        <v>-0.07847629965020501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1356922157724017</v>
+        <v>-0.1234985704780496</v>
       </c>
       <c r="C95">
-        <v>-0.07143928066246903</v>
+        <v>-0.07033755155681941</v>
       </c>
       <c r="D95">
-        <v>-0.06924860530333511</v>
+        <v>-0.04377389757495159</v>
       </c>
       <c r="E95">
-        <v>-0.02817933371306306</v>
+        <v>-0.03109450173434553</v>
       </c>
       <c r="F95">
-        <v>-0.03941344841357467</v>
+        <v>-0.08381590994196779</v>
       </c>
       <c r="G95">
-        <v>0.1393850980994854</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.1212670211450159</v>
+      </c>
+      <c r="H95">
+        <v>0.1192867740178164</v>
+      </c>
+      <c r="I95">
+        <v>-0.1197941133076737</v>
+      </c>
+      <c r="J95">
+        <v>-0.07042181258609476</v>
+      </c>
+      <c r="K95">
+        <v>0.2245663170361853</v>
+      </c>
+      <c r="L95">
+        <v>-0.04449679528295913</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.00628425049370874</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.003810941003233914</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.00179604265660109</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.003206272137360231</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.004987555052722346</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.02726003641424844</v>
+      </c>
+      <c r="H96">
+        <v>-0.0139270807520298</v>
+      </c>
+      <c r="I96">
+        <v>-0.01084186306218235</v>
+      </c>
+      <c r="J96">
+        <v>0.01279278917072126</v>
+      </c>
+      <c r="K96">
+        <v>-0.02386626371507552</v>
+      </c>
+      <c r="L96">
+        <v>0.01117993077196546</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.2101308564937539</v>
+        <v>-0.1890969515747254</v>
       </c>
       <c r="C97">
-        <v>0.1433976305036703</v>
+        <v>-0.0392475405271266</v>
       </c>
       <c r="D97">
-        <v>0.9001704848103314</v>
+        <v>0.9100344275702781</v>
       </c>
       <c r="E97">
-        <v>-0.02255188342406018</v>
+        <v>0.268248628608072</v>
       </c>
       <c r="F97">
-        <v>-0.0737244927296829</v>
+        <v>0.05015522410176081</v>
       </c>
       <c r="G97">
-        <v>0.04426589970663723</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.01475330419867705</v>
+      </c>
+      <c r="H97">
+        <v>0.1053783024831691</v>
+      </c>
+      <c r="I97">
+        <v>0.01744844534826041</v>
+      </c>
+      <c r="J97">
+        <v>-0.04360324414521792</v>
+      </c>
+      <c r="K97">
+        <v>0.0317133694807846</v>
+      </c>
+      <c r="L97">
+        <v>0.06482618738635756</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.3061128352844693</v>
+        <v>-0.2634692089458429</v>
       </c>
       <c r="C98">
-        <v>-0.09140353272605174</v>
+        <v>-0.08734704358843046</v>
       </c>
       <c r="D98">
-        <v>-0.06203465683154301</v>
+        <v>-0.04719435811990728</v>
       </c>
       <c r="E98">
-        <v>0.2450399746021065</v>
+        <v>-0.01632412298254008</v>
       </c>
       <c r="F98">
-        <v>-0.2069304550452273</v>
+        <v>0.353605233796952</v>
       </c>
       <c r="G98">
-        <v>-0.2377311241369189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.04956550597015652</v>
+      </c>
+      <c r="H98">
+        <v>-0.1528888741900532</v>
+      </c>
+      <c r="I98">
+        <v>-0.3382958332588676</v>
+      </c>
+      <c r="J98">
+        <v>-0.1757723096248956</v>
+      </c>
+      <c r="K98">
+        <v>0.4982301957496182</v>
+      </c>
+      <c r="L98">
+        <v>0.2162642700271475</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.08283276972229985</v>
+        <v>-0.06413292583998884</v>
       </c>
       <c r="C99">
-        <v>-0.03610434937488004</v>
+        <v>-0.02777225220168529</v>
       </c>
       <c r="D99">
-        <v>-0.006319625381000064</v>
+        <v>-0.01388521756164817</v>
       </c>
       <c r="E99">
-        <v>0.01033633833194561</v>
+        <v>-0.004940632700395318</v>
       </c>
       <c r="F99">
-        <v>0.01913234615600539</v>
+        <v>0.007838512166560486</v>
       </c>
       <c r="G99">
-        <v>0.01174918824155958</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.01359211570279765</v>
+      </c>
+      <c r="H99">
+        <v>-0.009843399989198495</v>
+      </c>
+      <c r="I99">
+        <v>0.02707305436985394</v>
+      </c>
+      <c r="J99">
+        <v>-0.005149119109775517</v>
+      </c>
+      <c r="K99">
+        <v>-0.05734179408508406</v>
+      </c>
+      <c r="L99">
+        <v>0.01579827750373429</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.02015568257210944</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.02140085052336719</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.03536184985808428</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.04797619949925043</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.07482160785404886</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>-0.1412209010997313</v>
+      </c>
+      <c r="H100">
+        <v>-0.1201014122661859</v>
+      </c>
+      <c r="I100">
+        <v>-0.08318119275057458</v>
+      </c>
+      <c r="J100">
+        <v>-0.1173742851956178</v>
+      </c>
+      <c r="K100">
+        <v>0.1915966859354566</v>
+      </c>
+      <c r="L100">
+        <v>-0.03193226254661802</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.05631590039402426</v>
+        <v>-0.04124093629443668</v>
       </c>
       <c r="C101">
-        <v>-0.006984543781873077</v>
+        <v>-0.02563003571594496</v>
       </c>
       <c r="D101">
-        <v>-0.02457382828553434</v>
+        <v>-0.02762611168155123</v>
       </c>
       <c r="E101">
-        <v>-0.045585216636023</v>
+        <v>-0.00463245818722947</v>
       </c>
       <c r="F101">
-        <v>0.03345078944445331</v>
+        <v>-0.08823069709223778</v>
       </c>
       <c r="G101">
-        <v>0.045365392136698</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.03099546869165437</v>
+      </c>
+      <c r="H101">
+        <v>0.009749862988691058</v>
+      </c>
+      <c r="I101">
+        <v>-0.01818710656797952</v>
+      </c>
+      <c r="J101">
+        <v>0.02322402112925107</v>
+      </c>
+      <c r="K101">
+        <v>0.07386012740448737</v>
+      </c>
+      <c r="L101">
+        <v>-0.03776274645557709</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4576,25 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
